--- a/data/processed/documents/APP-000016/assets_liabilities.xlsx
+++ b/data/processed/documents/APP-000016/assets_liabilities.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nasser Al Shamsi</t>
+          <t>Hamad Al Qassimi</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>5000</v>
+        <v>2447.82</v>
       </c>
     </row>
     <row r="6">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>384108</v>
+        <v>132333</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>53794</v>
+        <v>89857</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>330314</v>
+        <v>42476</v>
       </c>
     </row>
     <row r="9">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>7.14</v>
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>
@@ -608,11 +608,11 @@
       </c>
       <c r="B2" s="7" t="inlineStr">
         <is>
-          <t>Luxury Car</t>
+          <t>Mid-range Car</t>
         </is>
       </c>
       <c r="C2" s="8" t="n">
-        <v>374149</v>
+        <v>128655</v>
       </c>
     </row>
     <row r="3">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C3" s="8" t="n">
-        <v>9959</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="4">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C4" s="10" t="n">
-        <v>384108</v>
+        <v>132333</v>
       </c>
     </row>
   </sheetData>
@@ -696,22 +696,22 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>Personal Loans</t>
+          <t>Auto Loans</t>
         </is>
       </c>
       <c r="B2" s="7" t="inlineStr">
         <is>
-          <t>Personal Loan</t>
+          <t>Vehicle Loan 1</t>
         </is>
       </c>
       <c r="C2" s="8" t="n">
-        <v>27517</v>
+        <v>77193</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>764</v>
+        <v>919</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="C3" s="8" t="n">
-        <v>26277</v>
+        <v>12664</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>1314</v>
+        <v>633</v>
       </c>
       <c r="E3" s="7" t="n">
         <v>1</v>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="C4" s="12" t="n">
-        <v>53794</v>
+        <v>89857</v>
       </c>
     </row>
   </sheetData>
